--- a/ApolloQA/Data/RatingManual/MO/OR00003.CollisionType_OtherThanCollisionTypeFactors.xlsx
+++ b/ApolloQA/Data/RatingManual/MO/OR00003.CollisionType_OtherThanCollisionTypeFactors.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="OR00003.CollisionType_OtherThanCollisionTypeFactors" sheetId="1" r:id="R0aee1228c6444296"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="OR00003.CollisionType_OtherThanCollisionTypeFactors" sheetId="1" r:id="R162fefcb46a24b12"/>
   </x:sheets>
 </x:workbook>
 </file>
